--- a/testData/CreateEntity/CreateEntity_ETRM_DefaultValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_ETRM_DefaultValues_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="142">
   <si>
     <t>WorflowName</t>
   </si>
@@ -431,6 +431,24 @@
   </si>
   <si>
     <t>CT: Thu, Jun 06, 2024 at 1:14 PM</t>
+  </si>
+  <si>
+    <t>9840082519</t>
+  </si>
+  <si>
+    <t>9840085115</t>
+  </si>
+  <si>
+    <t>9840059068</t>
+  </si>
+  <si>
+    <t>9840007827</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jul 16, 2024 at 4:55 PM</t>
+  </si>
+  <si>
+    <t>CT: Tue, Jul 16, 2024 at 4:58 PM</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1054,7 @@
         <v>58</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>97</v>
@@ -1111,7 +1129,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1141,7 +1159,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>101</v>
@@ -1153,7 +1171,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>102</v>
@@ -1419,7 +1437,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>84</v>
@@ -1494,7 +1512,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1524,7 +1542,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>86</v>
@@ -1536,7 +1554,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>87</v>
@@ -1800,7 +1818,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>88</v>
@@ -1875,7 +1893,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1905,7 +1923,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>71</v>
@@ -1917,7 +1935,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>72</v>
@@ -2179,7 +2197,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>92</v>
@@ -2254,7 +2272,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2284,7 +2302,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>94</v>
@@ -2296,7 +2314,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>95</v>
@@ -2679,7 +2697,7 @@
         <v>102</v>
       </c>
       <c r="BB2" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_ETRM_DefaultValues_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_ETRM_DefaultValues_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="146">
   <si>
     <t>WorflowName</t>
   </si>
@@ -449,6 +449,18 @@
   </si>
   <si>
     <t>CT: Tue, Jul 16, 2024 at 4:58 PM</t>
+  </si>
+  <si>
+    <t>9840062226</t>
+  </si>
+  <si>
+    <t>9840039741</t>
+  </si>
+  <si>
+    <t>9840072901</t>
+  </si>
+  <si>
+    <t>9840014664</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1066,7 @@
         <v>58</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>97</v>
@@ -1129,7 +1141,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1159,7 +1171,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>101</v>
@@ -1171,7 +1183,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>102</v>
@@ -1437,7 +1449,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>84</v>
@@ -1512,7 +1524,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1542,7 +1554,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>86</v>
@@ -1554,7 +1566,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>87</v>
@@ -1818,7 +1830,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>88</v>
@@ -1893,7 +1905,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1923,7 +1935,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>71</v>
@@ -1935,7 +1947,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>72</v>
@@ -2197,7 +2209,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>92</v>
@@ -2272,7 +2284,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2302,7 +2314,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>94</v>
@@ -2314,7 +2326,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>95</v>
